--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_12_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_12_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-181110.3127876513</v>
+        <v>-183698.923467514</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>282.1294663513607</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>48.52529342554051</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,25 +817,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>110.7257599868189</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>42.74130270055554</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -908,10 +908,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>382.0953130365746</v>
+        <v>319.8682547777996</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1060,19 +1060,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>69.52261281718101</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>125.8914187560855</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,22 +1133,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>81.3972943667486</v>
+        <v>36.70319388811476</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>22.74628879248387</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>211.9946625334428</v>
       </c>
     </row>
     <row r="11">
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986291</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>285.5970594671152</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>133.8107367464734</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>69.82863813027228</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1774,7 +1774,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>6.600826611594925</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1895,7 +1895,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>78.14939830226075</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>36.43062059490413</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2017,7 +2017,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2242,13 +2242,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>35.88641949135547</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018857</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2321,7 +2321,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>119.6255281319618</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>77.93612009725524</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2710,10 +2710,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2722,7 +2722,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,19 +2767,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>86.26216629270428</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>187.2400442609681</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2962,7 +2962,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>25.52471385612597</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,19 +3190,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3247,7 +3247,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146491</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,7 +3427,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,7 +3898,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H46" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>778.4750021151654</v>
+        <v>1302.576789404184</v>
       </c>
       <c r="C2" t="n">
-        <v>409.5124851747536</v>
+        <v>1302.576789404184</v>
       </c>
       <c r="D2" t="n">
-        <v>51.24678656800312</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="E2" t="n">
-        <v>51.24678656800312</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="F2" t="n">
-        <v>51.24678656800312</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800312</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800312</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4349,31 +4349,31 @@
         <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2513.323880495569</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2513.323880495569</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>2259.742819759749</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V2" t="n">
-        <v>1928.679932416179</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="W2" t="n">
-        <v>1928.679932416179</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="X2" t="n">
-        <v>1555.214174155099</v>
+        <v>1977.695380320764</v>
       </c>
       <c r="Y2" t="n">
-        <v>1165.074842179287</v>
+        <v>1587.556048344952</v>
       </c>
     </row>
     <row r="3">
@@ -4389,49 +4389,49 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735142</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L3" t="n">
-        <v>909.2465818694952</v>
+        <v>979.6730931919907</v>
       </c>
       <c r="M3" t="n">
-        <v>1272.508600828715</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N3" t="n">
-        <v>1659.793729425661</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601822</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
         <v>2426.617474780096</v>
@@ -4440,7 +4440,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>833.0891146802707</v>
+        <v>417.6850333819914</v>
       </c>
       <c r="C4" t="n">
-        <v>664.1529317523638</v>
+        <v>417.6850333819914</v>
       </c>
       <c r="D4" t="n">
-        <v>514.036292340028</v>
+        <v>417.6850333819914</v>
       </c>
       <c r="E4" t="n">
-        <v>366.1231987576349</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="F4" t="n">
-        <v>219.2332512597245</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800312</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800312</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800312</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
         <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U4" t="n">
-        <v>1347.327782578335</v>
+        <v>1048.115628253779</v>
       </c>
       <c r="V4" t="n">
-        <v>1347.327782578335</v>
+        <v>1048.115628253779</v>
       </c>
       <c r="W4" t="n">
-        <v>1057.910612541375</v>
+        <v>1048.115628253779</v>
       </c>
       <c r="X4" t="n">
-        <v>1014.73757951051</v>
+        <v>820.1260773557613</v>
       </c>
       <c r="Y4" t="n">
-        <v>1014.73757951051</v>
+        <v>599.3334982122311</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>848.1875530107163</v>
+        <v>1089.391082610343</v>
       </c>
       <c r="C5" t="n">
-        <v>848.1875530107163</v>
+        <v>1089.391082610343</v>
       </c>
       <c r="D5" t="n">
-        <v>848.1875530107163</v>
+        <v>1089.391082610343</v>
       </c>
       <c r="E5" t="n">
-        <v>848.1875530107163</v>
+        <v>1089.391082610343</v>
       </c>
       <c r="F5" t="n">
-        <v>437.2016482211088</v>
+        <v>678.4051778207354</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
         <v>51.2467865680031</v>
@@ -4565,16 +4565,16 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872914</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
         <v>1656.671415230817</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2308.758267664335</v>
+        <v>2184.059060190805</v>
       </c>
       <c r="V5" t="n">
-        <v>1977.695380320764</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="W5" t="n">
-        <v>1624.92672505065</v>
+        <v>1852.996172847234</v>
       </c>
       <c r="X5" t="n">
-        <v>1624.92672505065</v>
+        <v>1479.530414586155</v>
       </c>
       <c r="Y5" t="n">
-        <v>1234.787393074838</v>
+        <v>1089.391082610343</v>
       </c>
     </row>
     <row r="6">
@@ -4638,7 +4638,7 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I6" t="n">
         <v>51.2467865680031</v>
@@ -4647,25 +4647,25 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>423.148951518066</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L6" t="n">
-        <v>717.8525085495378</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M6" t="n">
-        <v>1081.114527508758</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1715.293511287796</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
-        <v>2047.363946463958</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2294.546680296255</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>518.2127024906389</v>
+        <v>714.3660817020698</v>
       </c>
       <c r="C7" t="n">
-        <v>349.2765195627319</v>
+        <v>545.4298987741629</v>
       </c>
       <c r="D7" t="n">
-        <v>199.1598801503962</v>
+        <v>395.3132593618271</v>
       </c>
       <c r="E7" t="n">
-        <v>51.2467865680031</v>
+        <v>395.3132593618271</v>
       </c>
       <c r="F7" t="n">
-        <v>51.2467865680031</v>
+        <v>325.0883979303312</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I7" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T7" t="n">
-        <v>1210.070916501369</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="U7" t="n">
-        <v>1210.070916501369</v>
+        <v>1150.699034738196</v>
       </c>
       <c r="V7" t="n">
-        <v>1210.070916501369</v>
+        <v>896.0145465323095</v>
       </c>
       <c r="W7" t="n">
-        <v>920.6537464644088</v>
+        <v>896.0145465323095</v>
       </c>
       <c r="X7" t="n">
-        <v>920.6537464644088</v>
+        <v>896.0145465323095</v>
       </c>
       <c r="Y7" t="n">
-        <v>699.8611673208786</v>
+        <v>896.0145465323095</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1522.010132800342</v>
+        <v>1632.688211171978</v>
       </c>
       <c r="C8" t="n">
-        <v>1522.010132800342</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="D8" t="n">
-        <v>1163.744434193592</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E8" t="n">
-        <v>777.9561815953474</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F8" t="n">
-        <v>771.0106808461439</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872914</v>
+        <v>795.7553530872924</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2480.119839140813</v>
+        <v>2525.265395179838</v>
       </c>
       <c r="T8" t="n">
-        <v>2480.119839140813</v>
+        <v>2316.519753785662</v>
       </c>
       <c r="U8" t="n">
-        <v>2226.538778404993</v>
+        <v>2316.519753785662</v>
       </c>
       <c r="V8" t="n">
-        <v>1895.475891061422</v>
+        <v>1985.456866442092</v>
       </c>
       <c r="W8" t="n">
-        <v>1895.475891061422</v>
+        <v>1632.688211171978</v>
       </c>
       <c r="X8" t="n">
-        <v>1522.010132800342</v>
+        <v>1632.688211171978</v>
       </c>
       <c r="Y8" t="n">
-        <v>1522.010132800342</v>
+        <v>1632.688211171978</v>
       </c>
     </row>
     <row r="9">
@@ -4878,22 +4878,22 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380226</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M9" t="n">
         <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O9" t="n">
         <v>1991.864164601821</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>687.0249717364609</v>
+        <v>518.2127024906389</v>
       </c>
       <c r="C10" t="n">
-        <v>518.088788808554</v>
+        <v>349.276519562732</v>
       </c>
       <c r="D10" t="n">
-        <v>367.9721493962183</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E10" t="n">
-        <v>367.9721493962183</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="F10" t="n">
-        <v>367.9721493962183</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4984,28 +4984,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T10" t="n">
-        <v>1413.467639269233</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U10" t="n">
-        <v>1390.491589983895</v>
+        <v>1021.765895288653</v>
       </c>
       <c r="V10" t="n">
-        <v>1135.807101778008</v>
+        <v>1021.765895288653</v>
       </c>
       <c r="W10" t="n">
-        <v>1135.807101778008</v>
+        <v>732.3487252516923</v>
       </c>
       <c r="X10" t="n">
-        <v>907.817550879991</v>
+        <v>732.3487252516923</v>
       </c>
       <c r="Y10" t="n">
-        <v>687.0249717364609</v>
+        <v>518.2127024906389</v>
       </c>
     </row>
     <row r="11">
@@ -5024,19 +5024,19 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
@@ -5045,13 +5045,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>803.8641191832229</v>
+        <v>849.3843576263213</v>
       </c>
       <c r="C13" t="n">
-        <v>634.927936255316</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510508</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304621</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1434.29471405501</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>1206.305163156993</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>985.5125840134626</v>
+        <v>1031.032822456561</v>
       </c>
     </row>
     <row r="14">
@@ -5267,22 +5267,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
@@ -5294,10 +5294,10 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>734.6461798836013</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>565.7099969556945</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>415.5933575433587</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>267.6802639609656</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>267.6802639609656</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>100.4841646758455</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>100.4841646758455</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y16" t="n">
-        <v>916.2946447138411</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="17">
@@ -5504,28 +5504,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,7 +5534,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5592,25 +5592,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>866.4638174991043</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C19" t="n">
-        <v>697.5276345711974</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5738,31 +5738,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5771,7 +5771,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5826,25 +5826,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1052.829365488567</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>883.8931825606599</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>733.7765431483241</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>585.863449565931</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>438.9735020680206</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>271.7774027829005</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>130.0655716250986</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2227.361618603201</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1972.677130397314</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1683.259960360354</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1455.270409462336</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>1234.477830318806</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5984,7 +5984,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6066,28 +6066,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>692.9625378792909</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1320.560501433898</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1872.470231673185</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P24" t="n">
-        <v>2296.093381168253</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="Q24" t="n">
-        <v>2529.355041543135</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.8641191832229</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C25" t="n">
-        <v>634.927936255316</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2259.083513032701</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2039.482048055643</v>
+        <v>2185.384895601574</v>
       </c>
       <c r="U25" t="n">
-        <v>1750.40682139984</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V25" t="n">
-        <v>1495.722333193953</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W25" t="n">
-        <v>1206.305163156993</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X25" t="n">
-        <v>1206.305163156993</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y25" t="n">
-        <v>985.5125840134626</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="26">
@@ -6221,10 +6221,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>119.290296770379</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.58045691144</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="C28" t="n">
-        <v>847.6442739835331</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D28" t="n">
-        <v>697.5276345711974</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1957.373282952344</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1702.688794746457</v>
       </c>
       <c r="W28" t="n">
-        <v>1244.570007809457</v>
+        <v>1413.271624709496</v>
       </c>
       <c r="X28" t="n">
-        <v>1016.58045691144</v>
+        <v>1185.282073811479</v>
       </c>
       <c r="Y28" t="n">
-        <v>1016.58045691144</v>
+        <v>964.4894946679489</v>
       </c>
     </row>
     <row r="29">
@@ -6452,31 +6452,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>733.4550657171301</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
-        <v>564.5188827892232</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>414.4022433768874</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>266.4891497944943</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>119.599202296584</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T31" t="n">
-        <v>2197.062545487567</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U31" t="n">
-        <v>1907.987318831765</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V31" t="n">
-        <v>1653.302830625878</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W31" t="n">
-        <v>1363.885660588917</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X31" t="n">
-        <v>1135.8961096909</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y31" t="n">
-        <v>915.1035305473698</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="32">
@@ -6689,58 +6689,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,25 +6771,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>194.8007783998286</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6929,10 +6929,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
@@ -6947,37 +6947,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7166,58 +7166,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745237</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,10 +7421,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,13 +7485,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7500,16 +7500,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,7 +7828,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547834</v>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>54.95314511566602</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,10 +8076,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>138.9393975111053</v>
       </c>
       <c r="R3" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8295,7 +8295,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8304,7 +8304,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8313,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>129.4330134067482</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878349</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -22544,10 +22544,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>100.6043753121198</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>258.9467869759318</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22556,13 +22556,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>104.2003294716227</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.421048022933</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0.9259388694758286</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>84.77391660562139</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462269</v>
       </c>
       <c r="I16" t="n">
-        <v>74.66500970697061</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23887,16 +23887,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>101.6825818796765</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,7 +23905,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -24130,13 +24130,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>45.37941682721006</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>61.40075786968275</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,10 +24598,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24610,7 +24610,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,19 +24655,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>199.9223080965399</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>99.28295407562291</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24850,7 +24850,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>139.9994244361429</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>46.45968844823102</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>57.22910392194186</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>139.469330230033</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1117145.902153907</v>
+        <v>1117145.902153906</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1117145.902153907</v>
+        <v>1117145.902153906</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1117145.902153906</v>
+        <v>1117145.902153907</v>
       </c>
     </row>
     <row r="11">
@@ -26320,40 +26320,40 @@
         <v>307890.6636991063</v>
       </c>
       <c r="E2" t="n">
-        <v>302679.9748837523</v>
+        <v>302679.9748837521</v>
       </c>
       <c r="F2" t="n">
-        <v>302679.9748837521</v>
+        <v>302679.9748837522</v>
       </c>
       <c r="G2" t="n">
         <v>302679.9748837522</v>
       </c>
       <c r="H2" t="n">
-        <v>302679.9748837521</v>
+        <v>302679.9748837524</v>
       </c>
       <c r="I2" t="n">
         <v>302679.9748837522</v>
       </c>
       <c r="J2" t="n">
-        <v>302679.9748837521</v>
+        <v>302679.9748837524</v>
       </c>
       <c r="K2" t="n">
         <v>302679.9748837523</v>
       </c>
       <c r="L2" t="n">
-        <v>302679.9748837521</v>
+        <v>302679.9748837523</v>
       </c>
       <c r="M2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837524</v>
       </c>
       <c r="N2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837524</v>
       </c>
       <c r="O2" t="n">
-        <v>302679.9748837523</v>
+        <v>302679.9748837524</v>
       </c>
       <c r="P2" t="n">
-        <v>307890.6636991059</v>
+        <v>307890.6636991061</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>507485.4416245457</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289267</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.71799363193</v>
+        <v>19427.7179936316</v>
       </c>
     </row>
     <row r="4">
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>83832.21090430403</v>
+        <v>83832.21090430411</v>
       </c>
       <c r="C4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="E4" t="n">
         <v>8117.312426731974</v>
@@ -26430,34 +26430,34 @@
         <v>8117.312426731974</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426731979</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426731975</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="I4" t="n">
-        <v>8117.312426731985</v>
+        <v>8117.312426731997</v>
       </c>
       <c r="J4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731967</v>
       </c>
       <c r="K4" t="n">
         <v>8117.312426731974</v>
       </c>
       <c r="L4" t="n">
+        <v>8117.312426731934</v>
+      </c>
+      <c r="M4" t="n">
+        <v>8117.312426731949</v>
+      </c>
+      <c r="N4" t="n">
         <v>8117.312426731974</v>
       </c>
-      <c r="M4" t="n">
-        <v>8117.312426731987</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8117.312426732029</v>
-      </c>
       <c r="O4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731998</v>
       </c>
       <c r="P4" t="n">
-        <v>16108.17168982544</v>
+        <v>16108.17168982543</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1016800.80031717</v>
+        <v>-1017021.931631145</v>
       </c>
       <c r="C6" t="n">
-        <v>80634.89099739798</v>
+        <v>80634.89099739795</v>
       </c>
       <c r="D6" t="n">
-        <v>80634.89099739786</v>
+        <v>80634.89099739789</v>
       </c>
       <c r="E6" t="n">
-        <v>-314045.3089914327</v>
+        <v>-314080.0469168684</v>
       </c>
       <c r="F6" t="n">
-        <v>193440.132633113</v>
+        <v>193405.3947076774</v>
       </c>
       <c r="G6" t="n">
-        <v>193440.1326331131</v>
+        <v>193405.3947076774</v>
       </c>
       <c r="H6" t="n">
-        <v>193440.132633113</v>
+        <v>193405.3947076775</v>
       </c>
       <c r="I6" t="n">
-        <v>193440.1326331131</v>
+        <v>193405.3947076774</v>
       </c>
       <c r="J6" t="n">
-        <v>25834.95482313038</v>
+        <v>25800.21689769505</v>
       </c>
       <c r="K6" t="n">
-        <v>193440.1326331132</v>
+        <v>193405.3947076775</v>
       </c>
       <c r="L6" t="n">
-        <v>193440.132633113</v>
+        <v>193405.3947076774</v>
       </c>
       <c r="M6" t="n">
-        <v>60832.83890418637</v>
+        <v>60798.10097875098</v>
       </c>
       <c r="N6" t="n">
-        <v>193440.1326331131</v>
+        <v>193405.3947076775</v>
       </c>
       <c r="O6" t="n">
-        <v>193440.1326331132</v>
+        <v>193405.3947076775</v>
       </c>
       <c r="P6" t="n">
-        <v>169190.6581617332</v>
+        <v>169190.6581617336</v>
       </c>
     </row>
   </sheetData>
@@ -26725,7 +26725,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26817,10 +26817,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241345</v>
+        <v>433.9106082241344</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26999,7 +26999,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996094</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>106.3261047950757</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>196.8182230907826</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27427,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>74.92692197325385</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27537,25 +27537,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>35.70820265975023</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>182.9683526884816</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>29.45238973637936</v>
+        <v>91.67944799515442</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -27676,10 +27676,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27780,19 +27780,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>75.89843520575023</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>94.8572772411264</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>42.05492103204577</v>
+        <v>86.7490215106796</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28017,16 +28017,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6624603617375</v>
@@ -28065,19 +28065,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>263.4808653287167</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>6.589990818651955</v>
       </c>
     </row>
     <row r="11">
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28500,7 +28500,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>-7.333857380491618e-13</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -29041,7 +29041,7 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30463,7 +30463,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
   </sheetData>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31054,16 +31054,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31075,7 +31075,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31124,7 +31124,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31136,16 +31136,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31230,7 +31230,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31239,7 +31239,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
@@ -31291,16 +31291,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190645</v>
@@ -31312,7 +31312,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31361,7 +31361,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31373,16 +31373,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31467,7 +31467,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
@@ -31476,7 +31476,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
@@ -31528,16 +31528,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
         <v>539.9786897190645</v>
@@ -31549,7 +31549,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
@@ -31598,7 +31598,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31610,16 +31610,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31704,7 +31704,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
@@ -31713,7 +31713,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,25 +31835,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>430.400187030115</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>320.9147064709964</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -31862,7 +31862,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32075,13 +32075,13 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32090,13 +32090,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32312,28 +32312,28 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32479,7 +32479,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
         <v>981.2715114159425</v>
@@ -32546,16 +32546,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,10 +32564,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32786,13 +32786,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,16 +32801,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>359.1374415194863</v>
       </c>
       <c r="R24" t="n">
-        <v>169.6252075171357</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,16 +33020,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>163.5723821283055</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,13 +33038,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33199,7 +33199,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
         <v>593.8732233669223</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,31 +33488,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>253.6713445157999</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>754.000239683233</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34211,19 +34211,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>426.9501404413636</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34232,16 +34232,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34699,19 +34699,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34720,7 +34720,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
         <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>352.6335057535162</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>255.4201198419598</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,13 +34854,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34869,13 +34869,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,19 +34936,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
         <v>308.745693963795</v>
@@ -34957,7 +34957,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,28 +35015,28 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>640.5848321000387</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>245.9137357376028</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,13 +35091,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
@@ -35106,13 +35106,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,19 +35173,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
         <v>308.745693963795</v>
@@ -35194,7 +35194,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,19 +35252,19 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313197</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235323</v>
@@ -35328,13 +35328,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
@@ -35343,13 +35343,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,25 +35483,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>291.8458072502408</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>189.5729943876631</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35510,7 +35510,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,13 +35738,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35896,7 +35896,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36194,16 +36194,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,10 +36212,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36434,13 +36434,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,16 +36449,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="R24" t="n">
-        <v>23.94570355317173</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,16 +36668,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>25.73094315394657</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,13 +36686,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36847,7 +36847,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924728</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,25 +37142,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>122.3296324324666</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>622.6585275998997</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,16 +37862,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>295.6084283580303</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37880,7 +37880,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
